--- a/Data/Processed/Angiosperms/missing_powo_ipni/Solanaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Solanaceae.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3666,7 +3666,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7142,7 +7142,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -7230,7 +7230,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -7318,7 +7318,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -11146,7 +11146,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -13984,7 +13984,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -15172,7 +15172,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -16305,7 +16305,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -16778,7 +16778,7 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -23741,7 +23741,7 @@
       </c>
       <c r="G417" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
@@ -34884,7 +34884,7 @@
       </c>
       <c r="G619" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I619" t="inlineStr">
@@ -43882,7 +43882,7 @@
       </c>
       <c r="G782" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I782" t="inlineStr">
@@ -44300,7 +44300,7 @@
       </c>
       <c r="G789" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I789" t="inlineStr">
@@ -49778,7 +49778,7 @@
       </c>
       <c r="G888" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I888" t="inlineStr">
@@ -51186,7 +51186,7 @@
       </c>
       <c r="G913" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I913" t="inlineStr">
@@ -54409,7 +54409,7 @@
       </c>
       <c r="G971" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I971" t="inlineStr">
@@ -55927,7 +55927,7 @@
       </c>
       <c r="G998" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I998" t="inlineStr">
@@ -68332,7 +68332,7 @@
       </c>
       <c r="G1223" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I1223" t="inlineStr">
@@ -68530,7 +68530,7 @@
       </c>
       <c r="G1226" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I1226" t="inlineStr">
@@ -80608,7 +80608,7 @@
       </c>
       <c r="G1445" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1445" t="inlineStr">
@@ -80618,7 +80618,7 @@
       </c>
       <c r="I1445" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prodr. [A. P. de Candolle] 10: 198. 1846 [8 Apr 1846] </t>
+          <t>Prodr. [A. P. de Candolle] 10: 198. 1846 [8 Apr 1846]</t>
         </is>
       </c>
       <c r="J1445" t="b">
@@ -80686,7 +80686,7 @@
       </c>
       <c r="G1446" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1446" t="inlineStr">
@@ -80696,7 +80696,7 @@
       </c>
       <c r="I1446" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 75: 295. 1928 </t>
+          <t>Bull. Soc. Bot. France 75: 295. 1928</t>
         </is>
       </c>
       <c r="J1446" t="b">
@@ -80764,7 +80764,7 @@
       </c>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1447" t="inlineStr">
@@ -80842,7 +80842,7 @@
       </c>
       <c r="G1448" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1448" t="inlineStr">
@@ -80852,7 +80852,7 @@
       </c>
       <c r="I1448" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prodr. [A. P. de Candolle] 13(1): 628. 1852 [10 May 1852] </t>
+          <t>Prodr. [A. P. de Candolle] 13(1): 628. 1852 [10 May 1852]</t>
         </is>
       </c>
       <c r="J1448" t="b">
@@ -80920,7 +80920,7 @@
       </c>
       <c r="G1449" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1449" t="inlineStr">
@@ -80930,7 +80930,7 @@
       </c>
       <c r="I1449" t="inlineStr">
         <is>
-          <t xml:space="preserve">Candollea 6: 382. 1935 </t>
+          <t>Candollea 6: 382. 1935</t>
         </is>
       </c>
       <c r="J1449" t="b">
@@ -80998,7 +80998,7 @@
       </c>
       <c r="G1450" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1450" t="inlineStr">
@@ -81008,7 +81008,7 @@
       </c>
       <c r="I1450" t="inlineStr">
         <is>
-          <t xml:space="preserve">Loefgrenia 75: 1 (1981). </t>
+          <t>Loefgrenia 75: 1 (1981).</t>
         </is>
       </c>
       <c r="J1450" t="b">
@@ -81076,7 +81076,7 @@
       </c>
       <c r="G1451" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1451" t="inlineStr">
@@ -81086,7 +81086,7 @@
       </c>
       <c r="I1451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phytologia 1: 340. 1939 </t>
+          <t>Phytologia 1: 340. 1939</t>
         </is>
       </c>
       <c r="J1451" t="b">
@@ -81154,7 +81154,7 @@
       </c>
       <c r="G1452" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1452" t="inlineStr">
@@ -81164,7 +81164,7 @@
       </c>
       <c r="I1452" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mem. Torrey Bot. Club 6: 92. 1896 </t>
+          <t>Mem. Torrey Bot. Club 6: 92. 1896</t>
         </is>
       </c>
       <c r="J1452" t="b">
@@ -81232,7 +81232,7 @@
       </c>
       <c r="G1453" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1453" t="inlineStr">
@@ -81242,7 +81242,7 @@
       </c>
       <c r="I1453" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rev. Hort. (Paris) 60: 511. 1888 </t>
+          <t>Rev. Hort. (Paris) 60: 511. 1888</t>
         </is>
       </c>
       <c r="J1453" t="b">
@@ -81310,7 +81310,7 @@
       </c>
       <c r="G1454" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1454" t="inlineStr">
@@ -81320,7 +81320,7 @@
       </c>
       <c r="I1454" t="inlineStr">
         <is>
-          <t xml:space="preserve">Univ. Calif. Publ. Bot. 18: 195, tab. 14, 15. 1941 </t>
+          <t>Univ. Calif. Publ. Bot. 18: 195, tab. 14, 15. 1941</t>
         </is>
       </c>
       <c r="J1454" t="b">
@@ -81388,7 +81388,7 @@
       </c>
       <c r="G1455" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1455" t="inlineStr">
@@ -81398,7 +81398,7 @@
       </c>
       <c r="I1455" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hist. Pl. (Baillon) 9[3]: 357, adnot. 8. 1888 [Feb-Mar 1888] </t>
+          <t>Hist. Pl. (Baillon) 9[3]: 357, adnot. 8. 1888 [Feb-Mar 1888]</t>
         </is>
       </c>
       <c r="J1455" t="b">
@@ -81466,7 +81466,7 @@
       </c>
       <c r="G1456" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1456" t="inlineStr">
@@ -81544,7 +81544,7 @@
       </c>
       <c r="G1457" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1457" t="inlineStr">
@@ -81554,7 +81554,7 @@
       </c>
       <c r="I1457" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phytologia 10: 424. 1964 </t>
+          <t>Phytologia 10: 424. 1964</t>
         </is>
       </c>
       <c r="J1457" t="b">
@@ -81622,7 +81622,7 @@
       </c>
       <c r="G1458" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1458" t="inlineStr">
@@ -81700,7 +81700,7 @@
       </c>
       <c r="G1459" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1459" t="inlineStr">
@@ -81710,7 +81710,7 @@
       </c>
       <c r="I1459" t="inlineStr">
         <is>
-          <t xml:space="preserve">Repert. Spec. Nov. Regni Veg. 11: 227. 1912 </t>
+          <t>Repert. Spec. Nov. Regni Veg. 11: 227. 1912</t>
         </is>
       </c>
       <c r="J1459" t="b">
@@ -81778,7 +81778,7 @@
       </c>
       <c r="G1460" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1460" t="inlineStr">
@@ -81856,7 +81856,7 @@
       </c>
       <c r="G1461" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1461" t="inlineStr">
@@ -81866,7 +81866,7 @@
       </c>
       <c r="I1461" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 58(Mém. 3f): 496. 1911 </t>
+          <t>Bull. Soc. Bot. France 58(Mém. 3f): 496. 1911</t>
         </is>
       </c>
       <c r="J1461" t="b">
@@ -81934,7 +81934,7 @@
       </c>
       <c r="G1462" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1462" t="inlineStr">
@@ -81944,7 +81944,7 @@
       </c>
       <c r="I1462" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 10: 18, t. 1. 1846 [1 Jul 1846] </t>
+          <t>Fl. Bras. (Martius) 10: 18, t. 1. 1846 [1 Jul 1846]</t>
         </is>
       </c>
       <c r="J1462" t="b">
@@ -82012,7 +82012,7 @@
       </c>
       <c r="G1463" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H1463" t="inlineStr">
@@ -82022,7 +82022,7 @@
       </c>
       <c r="I1463" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phytologia 10: 429. 1964 </t>
+          <t>Phytologia 10: 429. 1964</t>
         </is>
       </c>
       <c r="J1463" t="b">
